--- a/src/main/resources/xlsx/sc/sc_subsidy.xlsx
+++ b/src/main/resources/xlsx/sc/sc_subsidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\待完成\干部选拔\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9750BE04-9172-424F-A1D0-6C7E2DC5B50F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4899CF0B-7B57-4ED3-B258-C3E57B9D34C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -374,7 +374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,9 +402,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -423,6 +420,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -463,19 +463,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:J18"/>
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,28 +846,28 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
@@ -960,16 +963,16 @@
     <row r="24" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
@@ -1036,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1082,7 +1085,7 @@
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="9"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
@@ -1097,10 +1100,10 @@
     </row>
     <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -1108,44 +1111,44 @@
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="11"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="11"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="11"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="33"/>
     </row>
   </sheetData>

--- a/src/main/resources/xlsx/sc/sc_subsidy.xlsx
+++ b/src/main/resources/xlsx/sc/sc_subsidy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4899CF0B-7B57-4ED3-B258-C3E57B9D34C6}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36C167D4-1DDC-4B4E-A32E-BA5DBD2A84B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -423,6 +423,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -450,6 +459,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,20 +477,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -832,18 +832,18 @@
     <row r="5" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
@@ -870,90 +870,90 @@
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -975,41 +975,41 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1073,83 +1073,83 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="34"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/xlsx/sc/sc_subsidy.xlsx
+++ b/src/main/resources/xlsx/sc/sc_subsidy.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\sc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{36C167D4-1DDC-4B4E-A32E-BA5DBD2A84B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{267EBE97-37DE-41E4-A16D-E96A10E0C9B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
     <sheet name="附表" sheetId="1" r:id="rId2"/>
+    <sheet name="附表 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,12 +200,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -374,33 +381,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,8 +418,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -474,11 +463,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,6 +496,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDBDBDB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -816,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -832,128 +847,128 @@
     <row r="5" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -963,53 +978,53 @@
     <row r="24" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1055,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1056,100 +1071,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="31" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="16"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="17"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1172,4 +1187,144 @@
     <firstFooter>&amp;C第 &amp;P 页，共 &amp;N 页</firstFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6761E9-6ABE-4F13-8646-D1FB81F817C0}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.45" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="23"/>
+      <c r="B3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="23"/>
+      <c r="B4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="23"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="23"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="23"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+    <firstHeader>&amp;L&amp;"黑体,常规"&amp;14附表：</firstHeader>
+    <firstFooter>&amp;C第 &amp;P 页，共 &amp;N 页</firstFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/main/resources/xlsx/sc/sc_subsidy.xlsx
+++ b/src/main/resources/xlsx/sc/sc_subsidy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\src\main\resources\xlsx\sc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{267EBE97-37DE-41E4-A16D-E96A10E0C9B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E446761D-8B41-429F-A93C-74E55E8DA092}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="2" r:id="rId1"/>
@@ -421,6 +421,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -463,32 +484,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -847,18 +847,18 @@
     <row r="5" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:10" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
@@ -885,90 +885,90 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="48.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:10" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -990,41 +990,41 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:10" s="1" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1074,96 +1074,96 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="11"/>
     </row>
   </sheetData>
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6761E9-6ABE-4F13-8646-D1FB81F817C0}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1214,96 +1214,96 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="28" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="23"/>
-      <c r="B3" s="25" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
     </row>
     <row r="4" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="11"/>
     </row>
   </sheetData>
